--- a/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -91,15 +91,15 @@
     <t>better</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>gt</t>
@@ -1110,25 +1110,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6883116883116883</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L17">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1136,25 +1136,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6785714285714286</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1162,25 +1162,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6732673267326733</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="M19">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1396,25 +1396,25 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5304878048780488</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="L28">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1422,25 +1422,25 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5227272727272727</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="10:17">
